--- a/Documentation/Plan.xlsx
+++ b/Documentation/Plan.xlsx
@@ -232,7 +232,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -278,10 +278,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1367,7 +1370,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J16"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1456,16 +1459,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>13</v>
-      </c>
       <c r="E4" t="s" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1499,39 +1502,35 @@
         <v>12</v>
       </c>
       <c r="I5" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s" s="13">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" ht="19.95" customHeight="1">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="10">
         <v>11</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>13</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" t="s" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s" s="10">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" ht="19.95" customHeight="1">
       <c r="A7" s="8">
@@ -1541,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s" s="13">
         <v>13</v>
@@ -1549,14 +1548,10 @@
       <c r="E7" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F7" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s" s="13">
-        <v>12</v>
-      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" t="s" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s" s="13">
         <v>13</v>
@@ -1570,10 +1565,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s" s="10">
         <v>13</v>
@@ -1581,12 +1576,8 @@
       <c r="E8" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="F8" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s" s="10">
-        <v>12</v>
-      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="H8" t="s" s="10">
         <v>13</v>
       </c>
@@ -1602,10 +1593,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s" s="13">
         <v>13</v>
@@ -1614,7 +1605,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s" s="13">
         <v>12</v>
@@ -1646,10 +1637,10 @@
         <v>13</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s" s="10">
         <v>13</v>
@@ -1681,7 +1672,7 @@
         <v>13</v>
       </c>
       <c r="G11" t="s" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s" s="13">
         <v>13</v>
@@ -1690,55 +1681,107 @@
         <v>13</v>
       </c>
       <c r="J11" t="s" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="19.95" customHeight="1">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="B12" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" ht="19.95" customHeight="1">
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="B13" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s" s="13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" ht="19.95" customHeight="1">
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="B14" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s" s="10">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
+      <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1750,10 +1793,8 @@
       <c r="J15" s="14"/>
     </row>
     <row r="16" ht="19.95" customHeight="1">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="15"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1762,6 +1803,42 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
+    </row>
+    <row r="17" ht="19.95" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" ht="19.95" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" ht="19.95" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/Plan.xlsx
+++ b/Documentation/Plan.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrgas\Desktop\MicrowaveHandin\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42374EFC-3ED7-44E1-94E3-5028B07F3592}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="14">
   <si>
     <t>Table 1</t>
   </si>
@@ -59,10 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -75,13 +80,13 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Helvetica Neue"/>
@@ -113,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,51 +138,6 @@
       </top>
       <bottom style="thin">
         <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -228,64 +188,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -295,27 +243,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="fffefffe"/>
-      <rgbColor rgb="ff004c7f"/>
-      <rgbColor rgb="ffbfbfbf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffececec"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFEFFFE"/>
+      <rgbColor rgb="FF004C7F"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFECECEC"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -514,7 +520,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -533,7 +539,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -563,7 +569,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -589,7 +595,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -615,7 +621,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,7 +647,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -667,7 +673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -693,7 +699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -719,7 +725,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -745,7 +751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -771,7 +777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,9 +790,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -803,7 +815,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -822,7 +834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +860,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +886,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +912,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +964,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +990,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +1016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,9 +1081,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1085,7 +1103,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1104,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1290,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1342,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,497 +1373,454 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J19"/>
+  <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="27.6" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
-    <row r="2" ht="20.2" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="20.2" customHeight="1">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="5">
+    <row r="3" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6"/>
     </row>
-    <row r="4" ht="19.95" customHeight="1">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s" s="10">
+    <row r="4" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="J4" s="11"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="6"/>
     </row>
-    <row r="5" ht="19.95" customHeight="1">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="12">
+    <row r="5" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="J5" s="14"/>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" ht="19.95" customHeight="1">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s" s="10">
+    <row r="6" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="J6" s="11"/>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" ht="19.95" customHeight="1">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="12">
+    <row r="7" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s" s="13">
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="19.95" customHeight="1">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="9">
+    <row r="8" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s" s="10">
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="19.95" customHeight="1">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s" s="12">
+    <row r="9" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s" s="13">
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="19.95" customHeight="1">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s" s="10">
+    <row r="10" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s" s="10">
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="19.95" customHeight="1">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s" s="13">
+    <row r="11" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="D11" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s" s="13">
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="19.95" customHeight="1">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s" s="10">
+    <row r="12" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s" s="10">
-        <v>12</v>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="13" ht="19.95" customHeight="1">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s" s="13">
-        <v>12</v>
-      </c>
+    <row r="13" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
-    <row r="14" ht="19.95" customHeight="1">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="J14" t="s" s="10">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
-    <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+    <row r="15" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
-    <row r="16" ht="19.95" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+    <row r="16" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
-    <row r="17" ht="19.95" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" ht="19.95" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" ht="19.95" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+    <row r="17" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Documentation/Plan.xlsx
+++ b/Documentation/Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrgas\Desktop\MicrowaveHandin\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobi\Documents\GitHub\MicrowaveHandin\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42374EFC-3ED7-44E1-94E3-5028B07F3592}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897BC338-B525-4AA9-AD9D-FBD9B91F6852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1401,12 +1401,12 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.6" customHeight="1">
@@ -1455,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1">
+    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1">
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1">
+    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -1529,27 +1529,27 @@
         <v>12</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.95" customHeight="1">
+    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="3">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1557,13 +1557,13 @@
         <v>13</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1">
+    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.95" customHeight="1">
+    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.95" customHeight="1">
+    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.95" customHeight="1">
+    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.95" customHeight="1">
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.95" customHeight="1">
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.95" customHeight="1">
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
@@ -1767,7 +1767,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="19.95" customHeight="1">
+    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="12"/>
       <c r="C14" s="6"/>
@@ -1779,7 +1779,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="19.95" customHeight="1">
+    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9"/>
@@ -1791,7 +1791,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="19.95" customHeight="1">
+    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
       <c r="C16" s="6"/>
@@ -1803,7 +1803,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1">
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9"/>

--- a/Documentation/Plan.xlsx
+++ b/Documentation/Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobi\Documents\GitHub\MicrowaveHandin\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonathanLydemann\source\repos\MicrowaveHandin\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897BC338-B525-4AA9-AD9D-FBD9B91F6852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89202722-4FC2-4B04-A524-401A428978EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
   <si>
     <t>Table 1</t>
   </si>
@@ -1395,18 +1395,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV17"/>
+  <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.6" customHeight="1">
@@ -1455,9 +1455,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="3" spans="1:10" ht="19.95" customHeight="1">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -1481,9 +1481,9 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="4" spans="1:10" ht="19.95" customHeight="1">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -1507,9 +1507,9 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="5" spans="1:10" ht="19.95" customHeight="1">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -1535,9 +1535,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="6" spans="1:10" ht="19.95" customHeight="1">
       <c r="A6" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -1563,257 +1563,285 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="7" spans="1:10" ht="19.95" customHeight="1">
       <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="3">
+    <row r="10" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="3">
+    <row r="11" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="3">
+    <row r="12" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A11" s="3">
+    <row r="13" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>12</v>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="3">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+    <row r="15" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+    <row r="16" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+    <row r="17" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+    <row r="18" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/Plan.xlsx
+++ b/Documentation/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonathanLydemann\source\repos\MicrowaveHandin\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89202722-4FC2-4B04-A524-401A428978EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109F586F-E0E6-4FDC-9D14-7CAD6CC7571F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1401,7 +1401,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1574,10 +1574,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
